--- a/data/georgia_census/guria/lanchxuti/education_graduates.xlsx
+++ b/data/georgia_census/guria/lanchxuti/education_graduates.xlsx
@@ -1798,13 +1798,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8D284F5-AA03-415B-BA2B-AD7DA17A49D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{766AC251-DE37-44D6-A357-3A8D886A2654}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{630E2342-C239-4153-A89C-46BC679831ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD90461D-D615-4C0B-8A85-ACE176047683}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B4C24E-01F6-4929-AB31-ED2C98144915}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9610B4-01D5-4654-B0F5-83D2A609E016}"/>
 </file>